--- a/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H2">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I2">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J2">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>35.45408467378064</v>
+        <v>62.47264738015466</v>
       </c>
       <c r="R2">
-        <v>35.45408467378064</v>
+        <v>562.253826421392</v>
       </c>
       <c r="S2">
-        <v>9.97789028766166E-05</v>
+        <v>0.0001228642906285727</v>
       </c>
       <c r="T2">
-        <v>9.97789028766166E-05</v>
+        <v>0.0001291066956909114</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H3">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I3">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J3">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>1847.395817856709</v>
+        <v>2941.106199362779</v>
       </c>
       <c r="R3">
-        <v>1847.395817856709</v>
+        <v>26469.95579426501</v>
       </c>
       <c r="S3">
-        <v>0.005199150664321355</v>
+        <v>0.005784242256440625</v>
       </c>
       <c r="T3">
-        <v>0.005199150664321355</v>
+        <v>0.006078124091094717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H4">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I4">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J4">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>1219.801975268261</v>
+        <v>1857.38757290526</v>
       </c>
       <c r="R4">
-        <v>1219.801975268261</v>
+        <v>16716.48815614733</v>
       </c>
       <c r="S4">
-        <v>0.003432904951259549</v>
+        <v>0.003652904369149948</v>
       </c>
       <c r="T4">
-        <v>0.003432904951259549</v>
+        <v>0.003838498642388831</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H5">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I5">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J5">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>1431.77056781027</v>
+        <v>2212.352763416667</v>
       </c>
       <c r="R5">
-        <v>1431.77056781027</v>
+        <v>19911.17487075001</v>
       </c>
       <c r="S5">
-        <v>0.004029450985454119</v>
+        <v>0.004351010630993342</v>
       </c>
       <c r="T5">
-        <v>0.004029450985454119</v>
+        <v>0.004572073810947812</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H6">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I6">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J6">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>432.8456475331259</v>
+        <v>656.255479140764</v>
       </c>
       <c r="R6">
-        <v>432.8456475331259</v>
+        <v>3937.532874844584</v>
       </c>
       <c r="S6">
-        <v>0.001218163272953242</v>
+        <v>0.001290650665484002</v>
       </c>
       <c r="T6">
-        <v>0.001218163272953242</v>
+        <v>0.0009041501093574019</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H7">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J7">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>470.5489945811531</v>
+        <v>613.7094459231121</v>
       </c>
       <c r="R7">
-        <v>470.5489945811531</v>
+        <v>5523.385013308008</v>
       </c>
       <c r="S7">
-        <v>0.001324272304898173</v>
+        <v>0.001206975834825121</v>
       </c>
       <c r="T7">
-        <v>0.001324272304898173</v>
+        <v>0.001268299039662643</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H8">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J8">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>24518.76145398749</v>
+        <v>28892.39902110088</v>
       </c>
       <c r="R8">
-        <v>24518.76145398749</v>
+        <v>260031.5911899079</v>
       </c>
       <c r="S8">
-        <v>0.06900347704030771</v>
+        <v>0.05682237361711177</v>
       </c>
       <c r="T8">
-        <v>0.06900347704030771</v>
+        <v>0.05970936601259849</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H9">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J9">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>16189.29379595738</v>
+        <v>18246.3261288694</v>
       </c>
       <c r="R9">
-        <v>16189.29379595738</v>
+        <v>164216.9351598246</v>
       </c>
       <c r="S9">
-        <v>0.04556174523107751</v>
+        <v>0.03588485537933641</v>
       </c>
       <c r="T9">
-        <v>0.04556174523107751</v>
+        <v>0.0377080686314151</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H10">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J10">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>19002.55520211595</v>
+        <v>21733.38005608859</v>
       </c>
       <c r="R10">
-        <v>19002.55520211595</v>
+        <v>195600.4205047973</v>
       </c>
       <c r="S10">
-        <v>0.05347914428944942</v>
+        <v>0.0427428072209525</v>
       </c>
       <c r="T10">
-        <v>0.05347914428944942</v>
+        <v>0.04491445461182256</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H11">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J11">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>5744.75652465975</v>
+        <v>6446.824384385286</v>
       </c>
       <c r="R11">
-        <v>5744.75652465975</v>
+        <v>38680.94630631171</v>
       </c>
       <c r="S11">
-        <v>0.01616754482869888</v>
+        <v>0.01267890089521162</v>
       </c>
       <c r="T11">
-        <v>0.01616754482869888</v>
+        <v>0.008882054561710788</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H12">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I12">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J12">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>518.9736051910908</v>
+        <v>706.9258890972009</v>
       </c>
       <c r="R12">
-        <v>518.9736051910908</v>
+        <v>6362.333001874807</v>
       </c>
       <c r="S12">
-        <v>0.001460554331732169</v>
+        <v>0.001390303621397221</v>
       </c>
       <c r="T12">
-        <v>0.001460554331732169</v>
+        <v>0.001460941219351818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H13">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I13">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J13">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>27042.00874538623</v>
+        <v>33280.87094279747</v>
       </c>
       <c r="R13">
-        <v>27042.00874538623</v>
+        <v>299527.8384851773</v>
       </c>
       <c r="S13">
-        <v>0.0761046855114532</v>
+        <v>0.06545313463355529</v>
       </c>
       <c r="T13">
-        <v>0.0761046855114532</v>
+        <v>0.06877863284700791</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H14">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I14">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J14">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>17855.34824968528</v>
+        <v>21017.76403654133</v>
       </c>
       <c r="R14">
-        <v>17855.34824968528</v>
+        <v>189159.876328872</v>
       </c>
       <c r="S14">
-        <v>0.05025054447819523</v>
+        <v>0.04133541281249899</v>
       </c>
       <c r="T14">
-        <v>0.05025054447819523</v>
+        <v>0.04343555426836475</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H15">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I15">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J15">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>20958.12485979929</v>
+        <v>25034.46724064705</v>
       </c>
       <c r="R15">
-        <v>20958.12485979929</v>
+        <v>225310.2051658235</v>
       </c>
       <c r="S15">
-        <v>0.05898273003246948</v>
+        <v>0.04923502024925275</v>
       </c>
       <c r="T15">
-        <v>0.05898273003246948</v>
+        <v>0.05173651957078799</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H16">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I16">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J16">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N16">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O16">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P16">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q16">
-        <v>6335.954467826472</v>
+        <v>7426.033752715052</v>
       </c>
       <c r="R16">
-        <v>6335.954467826472</v>
+        <v>44556.20251629032</v>
       </c>
       <c r="S16">
-        <v>0.01783136107709049</v>
+        <v>0.01460470153696428</v>
       </c>
       <c r="T16">
-        <v>0.01783136107709049</v>
+        <v>0.01023115149971783</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H17">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I17">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J17">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N17">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O17">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P17">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q17">
-        <v>1332.222306841963</v>
+        <v>2472.089711640279</v>
       </c>
       <c r="R17">
-        <v>1332.222306841963</v>
+        <v>22248.80740476251</v>
       </c>
       <c r="S17">
-        <v>0.003749290988260948</v>
+        <v>0.004861832522361785</v>
       </c>
       <c r="T17">
-        <v>0.003749290988260948</v>
+        <v>0.005108849192498943</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H18">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I18">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J18">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N18">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P18">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q18">
-        <v>69417.72551063341</v>
+        <v>116381.7875692555</v>
       </c>
       <c r="R18">
-        <v>69417.72551063341</v>
+        <v>1047436.0881233</v>
       </c>
       <c r="S18">
-        <v>0.195363229804757</v>
+        <v>0.2288868228165429</v>
       </c>
       <c r="T18">
-        <v>0.195363229804757</v>
+        <v>0.2405159483675297</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H19">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I19">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J19">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N19">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O19">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P19">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q19">
-        <v>45835.26598795644</v>
+        <v>73498.2252563575</v>
       </c>
       <c r="R19">
-        <v>45835.26598795644</v>
+        <v>661484.0273072176</v>
       </c>
       <c r="S19">
-        <v>0.1289947997647322</v>
+        <v>0.1445481772787817</v>
       </c>
       <c r="T19">
-        <v>0.1289947997647322</v>
+        <v>0.1518922824616675</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H20">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I20">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J20">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N20">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O20">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P20">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q20">
-        <v>53800.19555623255</v>
+        <v>87544.46520700245</v>
       </c>
       <c r="R20">
-        <v>53800.19555623255</v>
+        <v>787900.1868630222</v>
       </c>
       <c r="S20">
-        <v>0.1514106071709756</v>
+        <v>0.1721727678781377</v>
       </c>
       <c r="T20">
-        <v>0.1514106071709756</v>
+        <v>0.1809204044151725</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H21">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I21">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J21">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N21">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O21">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P21">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q21">
-        <v>16264.6034263446</v>
+        <v>25968.52360552914</v>
       </c>
       <c r="R21">
-        <v>16264.6034263446</v>
+        <v>155811.1416331748</v>
       </c>
       <c r="S21">
-        <v>0.04577369012727834</v>
+        <v>0.05107201895974435</v>
       </c>
       <c r="T21">
-        <v>0.04577369012727834</v>
+        <v>0.03577790083906209</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H22">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I22">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J22">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N22">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O22">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P22">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q22">
-        <v>178.9585668308241</v>
+        <v>254.392784300004</v>
       </c>
       <c r="R22">
-        <v>178.9585668308241</v>
+        <v>1526.356705800024</v>
       </c>
       <c r="S22">
-        <v>0.0005036454790202653</v>
+        <v>0.0005003115810644571</v>
       </c>
       <c r="T22">
-        <v>0.0005036454790202653</v>
+        <v>0.0003504873803807839</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H23">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I23">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J23">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N23">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P23">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q23">
-        <v>9324.942696303448</v>
+        <v>11976.3804857672</v>
       </c>
       <c r="R23">
-        <v>9324.942696303448</v>
+        <v>71858.28291460323</v>
       </c>
       <c r="S23">
-        <v>0.02624331047284263</v>
+        <v>0.02355382002186611</v>
       </c>
       <c r="T23">
-        <v>0.02624331047284263</v>
+        <v>0.01650035096101592</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H24">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I24">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J24">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N24">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O24">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P24">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q24">
-        <v>6157.090651753626</v>
+        <v>7563.406002635546</v>
       </c>
       <c r="R24">
-        <v>6157.090651753626</v>
+        <v>45380.43601581327</v>
       </c>
       <c r="S24">
-        <v>0.01732798225639083</v>
+        <v>0.01487487007865944</v>
       </c>
       <c r="T24">
-        <v>0.01732798225639083</v>
+        <v>0.01042041488682267</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H25">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I25">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J25">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N25">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O25">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P25">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q25">
-        <v>7227.026482377903</v>
+        <v>9008.847918907908</v>
       </c>
       <c r="R25">
-        <v>7227.026482377903</v>
+        <v>54053.08751344746</v>
       </c>
       <c r="S25">
-        <v>0.02033911692000893</v>
+        <v>0.01771760530975874</v>
       </c>
       <c r="T25">
-        <v>0.02033911692000893</v>
+        <v>0.01241185954245975</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H26">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I26">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J26">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N26">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O26">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P26">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q26">
-        <v>2184.838149235123</v>
+        <v>2672.316054334286</v>
       </c>
       <c r="R26">
-        <v>2184.838149235123</v>
+        <v>10689.26421733715</v>
       </c>
       <c r="S26">
-        <v>0.006148819113496285</v>
+        <v>0.005255615539280442</v>
       </c>
       <c r="T26">
-        <v>0.006148819113496285</v>
+        <v>0.00245450634147074</v>
       </c>
     </row>
   </sheetData>
